--- a/document/3.wbs(Work Breakdown Structure)_v2.xlsx
+++ b/document/3.wbs(Work Breakdown Structure)_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkedu\Desktop\Project\프로젝트_문서작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkedu\Desktop\muchmore\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t>WBS ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>윤다예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체팀원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2209,10 +2213,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2221,6 +2342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2248,127 +2372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2681,10 +2685,10 @@
   <dimension ref="A1:AO134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2700,127 +2704,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="154" t="s">
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="130" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="143">
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="145">
         <v>2017.07</v>
       </c>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="144"/>
-      <c r="AH1" s="144"/>
-      <c r="AI1" s="144"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="136">
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="146"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="138">
         <v>2017.08</v>
       </c>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="140"/>
+      <c r="AO1" s="141"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="155"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="131"/>
       <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="140" t="s">
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="140" t="s">
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="140" t="s">
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="140" t="s">
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="140" t="s">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="140" t="s">
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="142"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="144"/>
     </row>
     <row r="3" spans="1:41" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="155"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
@@ -2973,11 +2977,11 @@
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="65"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
@@ -3021,10 +3025,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="66" t="s">
         <v>134</v>
       </c>
@@ -3070,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="66" t="s">
         <v>134</v>
       </c>
@@ -3118,11 +3122,11 @@
       <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="68"/>
       <c r="F8" s="59"/>
       <c r="G8" s="29"/>
@@ -3166,10 +3170,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="112"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="66"/>
       <c r="F9" s="56"/>
       <c r="G9" s="27"/>
@@ -3307,10 +3311,10 @@
     <row r="12" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="94"/>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="113"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="67" t="s">
         <v>134</v>
       </c>
@@ -3356,11 +3360,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="F13" s="30"/>
       <c r="G13" s="64"/>
       <c r="H13" s="35"/>
@@ -3402,11 +3408,11 @@
       <c r="A14" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="65"/>
       <c r="F14" s="52"/>
       <c r="G14" s="53"/>
@@ -3450,10 +3456,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="44"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="134"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="65"/>
       <c r="F15" s="52"/>
       <c r="G15" s="53"/>
@@ -3497,10 +3503,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="44"/>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="65"/>
       <c r="F16" s="52"/>
       <c r="G16" s="53"/>
@@ -3541,11 +3547,11 @@
     </row>
     <row r="17" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="113"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="65"/>
       <c r="F17" s="52"/>
       <c r="G17" s="53"/>
@@ -3587,10 +3593,10 @@
     <row r="18" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="105"/>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="113"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="65"/>
       <c r="F18" s="52"/>
       <c r="G18" s="53"/>
@@ -3632,10 +3638,10 @@
     <row r="19" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="74"/>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="65"/>
       <c r="F19" s="52"/>
       <c r="G19" s="53"/>
@@ -3677,10 +3683,10 @@
     <row r="20" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="74"/>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="65"/>
       <c r="F20" s="52"/>
       <c r="G20" s="53"/>
@@ -3722,10 +3728,10 @@
     <row r="21" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="74"/>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="113"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="65"/>
       <c r="F21" s="52"/>
       <c r="G21" s="53"/>
@@ -3766,11 +3772,11 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
       <c r="E22" s="65"/>
       <c r="F22" s="52"/>
       <c r="G22" s="53"/>
@@ -3812,10 +3818,10 @@
     <row r="23" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="115"/>
+      <c r="D23" s="154"/>
       <c r="E23" s="65"/>
       <c r="F23" s="52"/>
       <c r="G23" s="53"/>
@@ -3857,10 +3863,10 @@
     <row r="24" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="65"/>
       <c r="F24" s="52"/>
       <c r="G24" s="53"/>
@@ -3902,10 +3908,10 @@
     <row r="25" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="154"/>
       <c r="E25" s="66"/>
       <c r="F25" s="56"/>
       <c r="G25" s="27"/>
@@ -3947,10 +3953,10 @@
     <row r="26" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="115"/>
+      <c r="D26" s="154"/>
       <c r="E26" s="66"/>
       <c r="F26" s="56"/>
       <c r="G26" s="27"/>
@@ -3992,10 +3998,10 @@
     <row r="27" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="106"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="115"/>
+      <c r="D27" s="154"/>
       <c r="E27" s="66"/>
       <c r="F27" s="56"/>
       <c r="G27" s="27"/>
@@ -4037,10 +4043,10 @@
     <row r="28" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="106"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="115"/>
+      <c r="D28" s="154"/>
       <c r="E28" s="66"/>
       <c r="F28" s="56"/>
       <c r="G28" s="27"/>
@@ -4082,10 +4088,10 @@
     <row r="29" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="164"/>
       <c r="E29" s="66"/>
       <c r="F29" s="56"/>
       <c r="G29" s="27"/>
@@ -4128,11 +4134,11 @@
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="68"/>
       <c r="F30" s="59"/>
       <c r="G30" s="29"/>
@@ -4176,10 +4182,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="112"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="66"/>
       <c r="F31" s="56"/>
       <c r="G31" s="27"/>
@@ -4895,11 +4901,11 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="122"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="162"/>
       <c r="E47" s="68"/>
       <c r="F47" s="104"/>
       <c r="G47" s="53"/>
@@ -4941,10 +4947,10 @@
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="95"/>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="117"/>
+      <c r="D48" s="157"/>
       <c r="E48" s="65" t="s">
         <v>131</v>
       </c>
@@ -5213,10 +5219,10 @@
     <row r="54" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="116" t="s">
+      <c r="C54" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="117"/>
+      <c r="D54" s="157"/>
       <c r="E54" s="67" t="s">
         <v>132</v>
       </c>
@@ -5395,10 +5401,10 @@
     <row r="58" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="116" t="s">
+      <c r="C58" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="117"/>
+      <c r="D58" s="157"/>
       <c r="E58" s="66" t="s">
         <v>132</v>
       </c>
@@ -5712,10 +5718,10 @@
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="125" t="s">
+      <c r="C65" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="112"/>
+      <c r="D65" s="115"/>
       <c r="E65" s="66" t="s">
         <v>131</v>
       </c>
@@ -6029,10 +6035,10 @@
     <row r="72" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="117"/>
+      <c r="D72" s="157"/>
       <c r="E72" s="66" t="s">
         <v>133</v>
       </c>
@@ -6211,10 +6217,10 @@
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="131" t="s">
+      <c r="C76" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="132"/>
+      <c r="D76" s="137"/>
       <c r="E76" s="65" t="s">
         <v>133</v>
       </c>
@@ -6618,10 +6624,10 @@
     <row r="85" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="116" t="s">
+      <c r="C85" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="117"/>
+      <c r="D85" s="157"/>
       <c r="E85" s="66" t="s">
         <v>132</v>
       </c>
@@ -6845,10 +6851,10 @@
     <row r="90" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="116" t="s">
+      <c r="C90" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="D90" s="117"/>
+      <c r="D90" s="157"/>
       <c r="E90" s="66" t="s">
         <v>131</v>
       </c>
@@ -6937,10 +6943,10 @@
     <row r="92" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="116" t="s">
+      <c r="C92" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="117"/>
+      <c r="D92" s="157"/>
       <c r="E92" s="66" t="s">
         <v>133</v>
       </c>
@@ -7074,10 +7080,10 @@
     <row r="95" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="116" t="s">
+      <c r="C95" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="D95" s="117"/>
+      <c r="D95" s="157"/>
       <c r="E95" s="67" t="s">
         <v>131</v>
       </c>
@@ -7211,10 +7217,10 @@
     <row r="98" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="116" t="s">
+      <c r="C98" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="117"/>
+      <c r="D98" s="157"/>
       <c r="E98" s="67" t="s">
         <v>133</v>
       </c>
@@ -7348,10 +7354,10 @@
     <row r="101" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="116" t="s">
+      <c r="C101" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="117"/>
+      <c r="D101" s="157"/>
       <c r="E101" s="67" t="s">
         <v>133</v>
       </c>
@@ -7485,10 +7491,10 @@
     <row r="104" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="116" t="s">
+      <c r="C104" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="117"/>
+      <c r="D104" s="157"/>
       <c r="E104" s="67" t="s">
         <v>132</v>
       </c>
@@ -7622,10 +7628,10 @@
     <row r="107" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="116" t="s">
+      <c r="C107" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="117"/>
+      <c r="D107" s="157"/>
       <c r="E107" s="67" t="s">
         <v>131</v>
       </c>
@@ -7805,11 +7811,11 @@
       <c r="A111" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="126" t="s">
+      <c r="B111" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="127"/>
-      <c r="D111" s="128"/>
+      <c r="C111" s="151"/>
+      <c r="D111" s="152"/>
       <c r="E111" s="68"/>
       <c r="F111" s="59"/>
       <c r="G111" s="29"/>
@@ -7853,10 +7859,10 @@
         <v>16</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="125" t="s">
+      <c r="C112" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="112"/>
+      <c r="D112" s="115"/>
       <c r="E112" s="66"/>
       <c r="F112" s="56"/>
       <c r="G112" s="27"/>
@@ -7900,10 +7906,10 @@
         <v>17</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="125" t="s">
+      <c r="C113" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="112"/>
+      <c r="D113" s="115"/>
       <c r="E113" s="66"/>
       <c r="F113" s="56"/>
       <c r="G113" s="27"/>
@@ -7947,10 +7953,10 @@
         <v>17</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="125" t="s">
+      <c r="C114" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="112"/>
+      <c r="D114" s="115"/>
       <c r="E114" s="66"/>
       <c r="F114" s="56"/>
       <c r="G114" s="27"/>
@@ -7994,10 +8000,10 @@
         <v>18</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="C115" s="129" t="s">
+      <c r="C115" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="130"/>
+      <c r="D115" s="149"/>
       <c r="E115" s="67"/>
       <c r="F115" s="57"/>
       <c r="G115" s="28"/>
@@ -8184,27 +8190,25 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="L1:AJ1"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C95:D95"/>
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
@@ -8221,27 +8225,29 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="L1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/document/3.wbs(Work Breakdown Structure)_v2.xlsx
+++ b/document/3.wbs(Work Breakdown Structure)_v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
   <si>
     <t>WBS ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WBS 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 계획서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,6 +558,10 @@
   </si>
   <si>
     <t>전체팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBS, WBS 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1589,42 +1589,122 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1634,128 +1714,6 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1772,19 +1730,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1838,36 +1783,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1876,7 +1812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,22 +2101,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
@@ -2189,13 +2110,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2213,166 +2134,175 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2684,11 +2614,11 @@
   </sheetPr>
   <dimension ref="A1:AO134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2704,127 +2634,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="130" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="147" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="145">
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="136">
         <v>2017.07</v>
       </c>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="138">
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="129">
         <v>2017.08</v>
       </c>
-      <c r="AL1" s="139"/>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="141"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="132"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A2" s="123"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="131"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="G2" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="142" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="142" t="s">
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="142" t="s">
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="142" t="s">
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="142" t="s">
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="142" t="s">
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="144"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="135"/>
     </row>
     <row r="3" spans="1:41" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="123"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="131"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
@@ -2977,11 +2907,11 @@
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="65"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
@@ -3025,21 +2955,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="27"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="110"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="105"/>
       <c r="N6" s="32"/>
       <c r="O6" s="48"/>
       <c r="P6" s="33"/>
@@ -3074,12 +3004,12 @@
         <v>7</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="27"/>
@@ -3087,8 +3017,8 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="110"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="32"/>
       <c r="O7" s="48"/>
       <c r="P7" s="33"/>
@@ -3122,11 +3052,11 @@
       <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="68"/>
       <c r="F8" s="59"/>
       <c r="G8" s="29"/>
@@ -3170,10 +3100,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="115"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="66"/>
       <c r="F9" s="56"/>
       <c r="G9" s="27"/>
@@ -3222,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="27"/>
@@ -3269,7 +3199,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="28"/>
@@ -3311,12 +3241,12 @@
     <row r="12" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="94"/>
-      <c r="C12" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="116"/>
+      <c r="C12" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="108"/>
       <c r="E12" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="28"/>
@@ -3356,16 +3286,16 @@
       <c r="AO12" s="49"/>
     </row>
     <row r="13" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="101" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="121"/>
+      <c r="C13" s="157" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="158"/>
       <c r="E13" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="64"/>
@@ -3405,14 +3335,14 @@
       <c r="AO13" s="50"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="65"/>
       <c r="F14" s="52"/>
       <c r="G14" s="53"/>
@@ -3456,11 +3386,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="44"/>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="165"/>
-      <c r="E15" s="65"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="65" t="s">
+        <v>133</v>
+      </c>
       <c r="F15" s="52"/>
       <c r="G15" s="53"/>
       <c r="H15" s="31"/>
@@ -3502,56 +3434,58 @@
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="115" t="s">
+      <c r="B16" s="161"/>
+      <c r="C16" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="55"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="50"/>
     </row>
     <row r="17" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="116"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="65"/>
       <c r="F17" s="52"/>
       <c r="G17" s="53"/>
@@ -3592,11 +3526,11 @@
     </row>
     <row r="18" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="65"/>
       <c r="F18" s="52"/>
       <c r="G18" s="53"/>
@@ -3638,11 +3572,13 @@
     <row r="19" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="74"/>
-      <c r="C19" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="65" t="s">
+        <v>133</v>
+      </c>
       <c r="F19" s="52"/>
       <c r="G19" s="53"/>
       <c r="H19" s="31"/>
@@ -3683,11 +3619,13 @@
     <row r="20" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="74"/>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="65"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="65" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="52"/>
       <c r="G20" s="53"/>
       <c r="H20" s="31"/>
@@ -3727,56 +3665,58 @@
     </row>
     <row r="21" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="55"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="158"/>
+      <c r="E21" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="50"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="65"/>
       <c r="F22" s="52"/>
       <c r="G22" s="53"/>
@@ -3818,10 +3758,10 @@
     <row r="23" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="65"/>
       <c r="F23" s="52"/>
       <c r="G23" s="53"/>
@@ -3863,10 +3803,10 @@
     <row r="24" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="153" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="154"/>
+      <c r="C24" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="112"/>
       <c r="E24" s="65"/>
       <c r="F24" s="52"/>
       <c r="G24" s="53"/>
@@ -3908,10 +3848,10 @@
     <row r="25" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="154"/>
+      <c r="C25" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="112"/>
       <c r="E25" s="66"/>
       <c r="F25" s="56"/>
       <c r="G25" s="27"/>
@@ -3953,10 +3893,10 @@
     <row r="26" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="153" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="154"/>
+      <c r="C26" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="112"/>
       <c r="E26" s="66"/>
       <c r="F26" s="56"/>
       <c r="G26" s="27"/>
@@ -3996,12 +3936,12 @@
       <c r="AO26" s="33"/>
     </row>
     <row r="27" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="106"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="153" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="154"/>
+      <c r="C27" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="112"/>
       <c r="E27" s="66"/>
       <c r="F27" s="56"/>
       <c r="G27" s="27"/>
@@ -4041,12 +3981,12 @@
       <c r="AO27" s="33"/>
     </row>
     <row r="28" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="106"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="153" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="154"/>
+      <c r="C28" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="112"/>
       <c r="E28" s="66"/>
       <c r="F28" s="56"/>
       <c r="G28" s="27"/>
@@ -4088,10 +4028,10 @@
     <row r="29" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="163" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="164"/>
+      <c r="C29" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="118"/>
       <c r="E29" s="66"/>
       <c r="F29" s="56"/>
       <c r="G29" s="27"/>
@@ -4134,11 +4074,11 @@
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="151"/>
-      <c r="D30" s="152"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="68"/>
       <c r="F30" s="59"/>
       <c r="G30" s="29"/>
@@ -4182,10 +4122,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="115"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="66"/>
       <c r="F31" s="56"/>
       <c r="G31" s="27"/>
@@ -4231,7 +4171,9 @@
       <c r="D32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="66"/>
+      <c r="E32" s="66" t="s">
+        <v>130</v>
+      </c>
       <c r="F32" s="56"/>
       <c r="G32" s="27"/>
       <c r="H32" s="32"/>
@@ -4276,7 +4218,9 @@
       <c r="D33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="66"/>
+      <c r="E33" s="66" t="s">
+        <v>131</v>
+      </c>
       <c r="F33" s="56"/>
       <c r="G33" s="27"/>
       <c r="H33" s="32"/>
@@ -4321,7 +4265,9 @@
       <c r="D34" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="67"/>
+      <c r="E34" s="67" t="s">
+        <v>131</v>
+      </c>
       <c r="F34" s="57"/>
       <c r="G34" s="28"/>
       <c r="H34" s="39"/>
@@ -4366,7 +4312,9 @@
       <c r="D35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="F35" s="57"/>
       <c r="G35" s="28"/>
       <c r="H35" s="39"/>
@@ -4411,7 +4359,9 @@
       <c r="D36" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="67"/>
+      <c r="E36" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="F36" s="57"/>
       <c r="G36" s="28"/>
       <c r="H36" s="39"/>
@@ -4456,7 +4406,9 @@
       <c r="D37" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="67"/>
+      <c r="E37" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="F37" s="57"/>
       <c r="G37" s="28"/>
       <c r="H37" s="39"/>
@@ -4501,7 +4453,9 @@
       <c r="D38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="67" t="s">
+        <v>131</v>
+      </c>
       <c r="F38" s="57"/>
       <c r="G38" s="28"/>
       <c r="H38" s="39"/>
@@ -4546,7 +4500,9 @@
       <c r="D39" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="F39" s="57"/>
       <c r="G39" s="28"/>
       <c r="H39" s="39"/>
@@ -4591,7 +4547,9 @@
       <c r="D40" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="67"/>
+      <c r="E40" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="F40" s="57"/>
       <c r="G40" s="28"/>
       <c r="H40" s="39"/>
@@ -4636,7 +4594,9 @@
       <c r="D41" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="67"/>
+      <c r="E41" s="67" t="s">
+        <v>130</v>
+      </c>
       <c r="F41" s="57"/>
       <c r="G41" s="28"/>
       <c r="H41" s="39"/>
@@ -4681,7 +4641,9 @@
       <c r="D42" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="67"/>
+      <c r="E42" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="F42" s="57"/>
       <c r="G42" s="28"/>
       <c r="H42" s="39"/>
@@ -4726,7 +4688,9 @@
       <c r="D43" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="67"/>
+      <c r="E43" s="67" t="s">
+        <v>131</v>
+      </c>
       <c r="F43" s="57"/>
       <c r="G43" s="28"/>
       <c r="H43" s="39"/>
@@ -4771,14 +4735,16 @@
       <c r="D44" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="66"/>
+      <c r="E44" s="66" t="s">
+        <v>132</v>
+      </c>
       <c r="F44" s="57"/>
       <c r="G44" s="28"/>
       <c r="H44" s="39"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="58"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
@@ -4793,16 +4759,16 @@
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
       <c r="Z44" s="49"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="39"/>
-      <c r="AH44" s="39"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="49"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="33"/>
+      <c r="AF44" s="34"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="33"/>
       <c r="AK44" s="58"/>
       <c r="AL44" s="39"/>
       <c r="AM44" s="39"/>
@@ -4813,21 +4779,23 @@
       <c r="A45" s="6"/>
       <c r="B45" s="13"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="66"/>
+      <c r="E45" s="66" t="s">
+        <v>130</v>
+      </c>
       <c r="F45" s="56"/>
       <c r="G45" s="28"/>
       <c r="H45" s="39"/>
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="32"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="27"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="39"/>
+      <c r="P45" s="49"/>
       <c r="Q45" s="28"/>
       <c r="R45" s="39"/>
       <c r="S45" s="39"/>
@@ -4838,21 +4806,21 @@
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
       <c r="Z45" s="49"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="58"/>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="49"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="39"/>
-      <c r="AM45" s="39"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="49"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="34"/>
+      <c r="AL45" s="32"/>
+      <c r="AM45" s="32"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="33"/>
     </row>
     <row r="46" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A46" s="20"/>
@@ -4862,52 +4830,52 @@
         <v>53</v>
       </c>
       <c r="E46" s="69"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="99"/>
-      <c r="AE46" s="99"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="99"/>
-      <c r="AJ46" s="101"/>
-      <c r="AK46" s="100"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="99"/>
-      <c r="AO46" s="101"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="50"/>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="161"/>
-      <c r="D47" s="162"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="68"/>
-      <c r="F47" s="104"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="53"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
@@ -4947,12 +4915,12 @@
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="95"/>
-      <c r="C48" s="156" t="s">
+      <c r="C48" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="157"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F48" s="52"/>
       <c r="G48" s="53"/>
@@ -5008,12 +4976,12 @@
       <c r="L49" s="34"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="48"/>
+      <c r="O49" s="32"/>
       <c r="P49" s="33"/>
-      <c r="Q49" s="27"/>
+      <c r="Q49" s="34"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
-      <c r="T49" s="48"/>
+      <c r="T49" s="32"/>
       <c r="U49" s="33"/>
       <c r="V49" s="34"/>
       <c r="W49" s="32"/>
@@ -5044,87 +5012,87 @@
         <v>98</v>
       </c>
       <c r="E50" s="67"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="39"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="39"/>
-      <c r="AH50" s="39"/>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="49"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="39"/>
-      <c r="AM50" s="39"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="49"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="33"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="32"/>
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="32"/>
+      <c r="AO50" s="33"/>
     </row>
     <row r="51" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="13"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="97" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="67"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="50"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="36"/>
-      <c r="AJ51" s="50"/>
-      <c r="AK51" s="37"/>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="36"/>
-      <c r="AO51" s="50"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="33"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="33"/>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
@@ -5134,42 +5102,42 @@
         <v>55</v>
       </c>
       <c r="E52" s="66"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="40"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="54"/>
-      <c r="AJ52" s="55"/>
-      <c r="AK52" s="40"/>
-      <c r="AL52" s="31"/>
-      <c r="AM52" s="31"/>
-      <c r="AN52" s="54"/>
-      <c r="AO52" s="55"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="32"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="32"/>
+      <c r="AM52" s="32"/>
+      <c r="AN52" s="32"/>
+      <c r="AO52" s="33"/>
     </row>
     <row r="53" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
@@ -5179,88 +5147,88 @@
         <v>58</v>
       </c>
       <c r="E53" s="66"/>
-      <c r="F53" s="56"/>
+      <c r="F53" s="163"/>
       <c r="G53" s="27"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="48"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="34"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="48"/>
+      <c r="O53" s="32"/>
       <c r="P53" s="33"/>
-      <c r="Q53" s="27"/>
+      <c r="Q53" s="34"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
-      <c r="T53" s="48"/>
+      <c r="T53" s="32"/>
       <c r="U53" s="33"/>
       <c r="V53" s="34"/>
       <c r="W53" s="32"/>
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
       <c r="Z53" s="33"/>
-      <c r="AA53" s="27"/>
+      <c r="AA53" s="34"/>
       <c r="AB53" s="32"/>
       <c r="AC53" s="32"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="48"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="33"/>
       <c r="AF53" s="34"/>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
-      <c r="AI53" s="48"/>
+      <c r="AI53" s="32"/>
       <c r="AJ53" s="33"/>
       <c r="AK53" s="34"/>
       <c r="AL53" s="32"/>
       <c r="AM53" s="32"/>
-      <c r="AN53" s="48"/>
+      <c r="AN53" s="32"/>
       <c r="AO53" s="33"/>
     </row>
     <row r="54" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="156" t="s">
+      <c r="C54" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="157"/>
+      <c r="D54" s="110"/>
       <c r="E54" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="F54" s="163"/>
       <c r="G54" s="27"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
-      <c r="K54" s="48"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="34"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="48"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="33"/>
-      <c r="Q54" s="27"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
-      <c r="T54" s="48"/>
+      <c r="T54" s="32"/>
       <c r="U54" s="33"/>
       <c r="V54" s="34"/>
       <c r="W54" s="32"/>
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
       <c r="Z54" s="33"/>
-      <c r="AA54" s="27"/>
+      <c r="AA54" s="34"/>
       <c r="AB54" s="32"/>
       <c r="AC54" s="32"/>
-      <c r="AD54" s="48"/>
-      <c r="AE54" s="48"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="33"/>
       <c r="AF54" s="34"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
-      <c r="AI54" s="48"/>
+      <c r="AI54" s="32"/>
       <c r="AJ54" s="33"/>
       <c r="AK54" s="34"/>
       <c r="AL54" s="32"/>
       <c r="AM54" s="32"/>
-      <c r="AN54" s="48"/>
+      <c r="AN54" s="32"/>
       <c r="AO54" s="33"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
@@ -5271,42 +5239,42 @@
         <v>59</v>
       </c>
       <c r="E55" s="66"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="60"/>
-      <c r="X55" s="60"/>
-      <c r="Y55" s="60"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="60"/>
-      <c r="AC55" s="60"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="61"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="62"/>
-      <c r="AL55" s="60"/>
-      <c r="AM55" s="60"/>
-      <c r="AN55" s="61"/>
-      <c r="AO55" s="63"/>
+      <c r="F55" s="163"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="32"/>
+      <c r="AH55" s="32"/>
+      <c r="AI55" s="32"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="32"/>
+      <c r="AM55" s="32"/>
+      <c r="AN55" s="32"/>
+      <c r="AO55" s="33"/>
     </row>
     <row r="56" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
@@ -5316,41 +5284,41 @@
         <v>97</v>
       </c>
       <c r="E56" s="66"/>
-      <c r="F56" s="56"/>
+      <c r="F56" s="163"/>
       <c r="G56" s="27"/>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
-      <c r="K56" s="48"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="34"/>
       <c r="M56" s="32"/>
       <c r="N56" s="32"/>
-      <c r="O56" s="48"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="33"/>
-      <c r="Q56" s="27"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
-      <c r="T56" s="48"/>
+      <c r="T56" s="32"/>
       <c r="U56" s="33"/>
       <c r="V56" s="34"/>
       <c r="W56" s="32"/>
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
       <c r="Z56" s="33"/>
-      <c r="AA56" s="27"/>
+      <c r="AA56" s="34"/>
       <c r="AB56" s="32"/>
       <c r="AC56" s="32"/>
-      <c r="AD56" s="48"/>
-      <c r="AE56" s="48"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="33"/>
       <c r="AF56" s="34"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
-      <c r="AI56" s="48"/>
+      <c r="AI56" s="32"/>
       <c r="AJ56" s="33"/>
       <c r="AK56" s="34"/>
       <c r="AL56" s="32"/>
       <c r="AM56" s="32"/>
-      <c r="AN56" s="48"/>
+      <c r="AN56" s="32"/>
       <c r="AO56" s="33"/>
     </row>
     <row r="57" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5361,88 +5329,88 @@
         <v>60</v>
       </c>
       <c r="E57" s="66"/>
-      <c r="F57" s="56"/>
+      <c r="F57" s="163"/>
       <c r="G57" s="27"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
-      <c r="K57" s="48"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="34"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="48"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="33"/>
-      <c r="Q57" s="27"/>
+      <c r="Q57" s="34"/>
       <c r="R57" s="32"/>
       <c r="S57" s="32"/>
-      <c r="T57" s="48"/>
+      <c r="T57" s="32"/>
       <c r="U57" s="33"/>
       <c r="V57" s="34"/>
       <c r="W57" s="32"/>
       <c r="X57" s="32"/>
       <c r="Y57" s="32"/>
       <c r="Z57" s="33"/>
-      <c r="AA57" s="27"/>
+      <c r="AA57" s="34"/>
       <c r="AB57" s="32"/>
       <c r="AC57" s="32"/>
-      <c r="AD57" s="48"/>
-      <c r="AE57" s="48"/>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="33"/>
       <c r="AF57" s="34"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
-      <c r="AI57" s="48"/>
+      <c r="AI57" s="32"/>
       <c r="AJ57" s="33"/>
       <c r="AK57" s="34"/>
       <c r="AL57" s="32"/>
       <c r="AM57" s="32"/>
-      <c r="AN57" s="48"/>
+      <c r="AN57" s="32"/>
       <c r="AO57" s="33"/>
     </row>
     <row r="58" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="156" t="s">
+      <c r="C58" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="157"/>
+      <c r="D58" s="110"/>
       <c r="E58" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="F58" s="163"/>
       <c r="G58" s="27"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="48"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="34"/>
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
-      <c r="O58" s="48"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="33"/>
-      <c r="Q58" s="27"/>
+      <c r="Q58" s="34"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
-      <c r="T58" s="48"/>
+      <c r="T58" s="32"/>
       <c r="U58" s="33"/>
       <c r="V58" s="34"/>
       <c r="W58" s="32"/>
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
       <c r="Z58" s="33"/>
-      <c r="AA58" s="27"/>
+      <c r="AA58" s="34"/>
       <c r="AB58" s="32"/>
       <c r="AC58" s="32"/>
-      <c r="AD58" s="48"/>
-      <c r="AE58" s="48"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="33"/>
       <c r="AF58" s="34"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
-      <c r="AI58" s="48"/>
+      <c r="AI58" s="32"/>
       <c r="AJ58" s="33"/>
       <c r="AK58" s="34"/>
       <c r="AL58" s="32"/>
       <c r="AM58" s="32"/>
-      <c r="AN58" s="48"/>
+      <c r="AN58" s="32"/>
       <c r="AO58" s="33"/>
     </row>
     <row r="59" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5453,41 +5421,41 @@
         <v>61</v>
       </c>
       <c r="E59" s="66"/>
-      <c r="F59" s="56"/>
+      <c r="F59" s="163"/>
       <c r="G59" s="27"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="48"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="34"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
-      <c r="O59" s="48"/>
+      <c r="O59" s="32"/>
       <c r="P59" s="33"/>
-      <c r="Q59" s="27"/>
+      <c r="Q59" s="34"/>
       <c r="R59" s="32"/>
       <c r="S59" s="32"/>
-      <c r="T59" s="48"/>
+      <c r="T59" s="32"/>
       <c r="U59" s="33"/>
       <c r="V59" s="34"/>
       <c r="W59" s="32"/>
       <c r="X59" s="32"/>
       <c r="Y59" s="32"/>
       <c r="Z59" s="33"/>
-      <c r="AA59" s="27"/>
+      <c r="AA59" s="34"/>
       <c r="AB59" s="32"/>
       <c r="AC59" s="32"/>
-      <c r="AD59" s="48"/>
-      <c r="AE59" s="48"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="33"/>
       <c r="AF59" s="34"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
-      <c r="AI59" s="48"/>
+      <c r="AI59" s="32"/>
       <c r="AJ59" s="33"/>
       <c r="AK59" s="34"/>
       <c r="AL59" s="32"/>
       <c r="AM59" s="32"/>
-      <c r="AN59" s="48"/>
+      <c r="AN59" s="32"/>
       <c r="AO59" s="33"/>
     </row>
     <row r="60" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5498,42 +5466,42 @@
         <v>62</v>
       </c>
       <c r="E60" s="67"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="49"/>
-      <c r="V60" s="58"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="38"/>
-      <c r="AE60" s="38"/>
-      <c r="AF60" s="58"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="49"/>
-      <c r="AK60" s="58"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="38"/>
-      <c r="AO60" s="49"/>
+      <c r="F60" s="163"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="34"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="32"/>
+      <c r="AJ60" s="33"/>
+      <c r="AK60" s="34"/>
+      <c r="AL60" s="32"/>
+      <c r="AM60" s="32"/>
+      <c r="AN60" s="32"/>
+      <c r="AO60" s="33"/>
     </row>
     <row r="61" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
@@ -5543,42 +5511,42 @@
         <v>63</v>
       </c>
       <c r="E61" s="67"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="58"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="38"/>
-      <c r="AE61" s="38"/>
-      <c r="AF61" s="58"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="38"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="58"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="38"/>
-      <c r="AO61" s="49"/>
+      <c r="F61" s="163"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
+      <c r="AD61" s="32"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="34"/>
+      <c r="AG61" s="32"/>
+      <c r="AH61" s="32"/>
+      <c r="AI61" s="32"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="34"/>
+      <c r="AL61" s="32"/>
+      <c r="AM61" s="32"/>
+      <c r="AN61" s="32"/>
+      <c r="AO61" s="33"/>
     </row>
     <row r="62" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
@@ -5588,42 +5556,42 @@
         <v>96</v>
       </c>
       <c r="E62" s="67"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="58"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="38"/>
-      <c r="AE62" s="38"/>
-      <c r="AF62" s="58"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="38"/>
-      <c r="AJ62" s="49"/>
-      <c r="AK62" s="58"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
-      <c r="AN62" s="38"/>
-      <c r="AO62" s="49"/>
+      <c r="F62" s="163"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="34"/>
+      <c r="AG62" s="32"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="34"/>
+      <c r="AL62" s="32"/>
+      <c r="AM62" s="32"/>
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="33"/>
     </row>
     <row r="63" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
@@ -5633,42 +5601,42 @@
         <v>64</v>
       </c>
       <c r="E63" s="67"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="58"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="38"/>
-      <c r="AE63" s="38"/>
-      <c r="AF63" s="58"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="38"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="58"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="49"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="34"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="34"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="33"/>
     </row>
     <row r="64" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
@@ -5678,89 +5646,89 @@
         <v>95</v>
       </c>
       <c r="E64" s="67"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="50"/>
-      <c r="AA64" s="64"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="36"/>
-      <c r="AE64" s="36"/>
-      <c r="AF64" s="37"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="36"/>
-      <c r="AJ64" s="50"/>
-      <c r="AK64" s="37"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="36"/>
-      <c r="AO64" s="50"/>
+      <c r="F64" s="163"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="34"/>
+      <c r="AG64" s="32"/>
+      <c r="AH64" s="32"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="34"/>
+      <c r="AL64" s="32"/>
+      <c r="AM64" s="32"/>
+      <c r="AN64" s="32"/>
+      <c r="AO64" s="33"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="119" t="s">
+      <c r="C65" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="115"/>
+      <c r="D65" s="107"/>
       <c r="E65" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="63"/>
-      <c r="V65" s="62"/>
-      <c r="W65" s="60"/>
-      <c r="X65" s="60"/>
-      <c r="Y65" s="60"/>
-      <c r="Z65" s="63"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="60"/>
-      <c r="AC65" s="60"/>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="61"/>
-      <c r="AF65" s="62"/>
-      <c r="AG65" s="60"/>
-      <c r="AH65" s="60"/>
-      <c r="AI65" s="61"/>
-      <c r="AJ65" s="63"/>
-      <c r="AK65" s="62"/>
-      <c r="AL65" s="60"/>
-      <c r="AM65" s="60"/>
-      <c r="AN65" s="61"/>
-      <c r="AO65" s="63"/>
+        <v>130</v>
+      </c>
+      <c r="F65" s="163"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="32"/>
+      <c r="AC65" s="32"/>
+      <c r="AD65" s="32"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="32"/>
+      <c r="AH65" s="32"/>
+      <c r="AI65" s="32"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="34"/>
+      <c r="AL65" s="32"/>
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="32"/>
+      <c r="AO65" s="33"/>
     </row>
     <row r="66" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
@@ -5770,41 +5738,41 @@
         <v>77</v>
       </c>
       <c r="E66" s="66"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="163"/>
       <c r="G66" s="27"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="48"/>
+      <c r="K66" s="33"/>
       <c r="L66" s="34"/>
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
-      <c r="O66" s="48"/>
+      <c r="O66" s="32"/>
       <c r="P66" s="33"/>
-      <c r="Q66" s="27"/>
+      <c r="Q66" s="34"/>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
-      <c r="T66" s="48"/>
+      <c r="T66" s="32"/>
       <c r="U66" s="33"/>
       <c r="V66" s="34"/>
       <c r="W66" s="32"/>
       <c r="X66" s="32"/>
       <c r="Y66" s="32"/>
       <c r="Z66" s="33"/>
-      <c r="AA66" s="27"/>
+      <c r="AA66" s="34"/>
       <c r="AB66" s="32"/>
       <c r="AC66" s="32"/>
-      <c r="AD66" s="48"/>
-      <c r="AE66" s="48"/>
+      <c r="AD66" s="32"/>
+      <c r="AE66" s="33"/>
       <c r="AF66" s="34"/>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
-      <c r="AI66" s="48"/>
+      <c r="AI66" s="32"/>
       <c r="AJ66" s="33"/>
       <c r="AK66" s="34"/>
       <c r="AL66" s="32"/>
       <c r="AM66" s="32"/>
-      <c r="AN66" s="48"/>
+      <c r="AN66" s="32"/>
       <c r="AO66" s="33"/>
     </row>
     <row r="67" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5815,41 +5783,41 @@
         <v>78</v>
       </c>
       <c r="E67" s="66"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="163"/>
       <c r="G67" s="27"/>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
-      <c r="K67" s="48"/>
+      <c r="K67" s="33"/>
       <c r="L67" s="34"/>
       <c r="M67" s="32"/>
       <c r="N67" s="32"/>
-      <c r="O67" s="48"/>
+      <c r="O67" s="32"/>
       <c r="P67" s="33"/>
-      <c r="Q67" s="27"/>
+      <c r="Q67" s="34"/>
       <c r="R67" s="32"/>
       <c r="S67" s="32"/>
-      <c r="T67" s="48"/>
+      <c r="T67" s="32"/>
       <c r="U67" s="33"/>
       <c r="V67" s="34"/>
       <c r="W67" s="32"/>
       <c r="X67" s="32"/>
       <c r="Y67" s="32"/>
       <c r="Z67" s="33"/>
-      <c r="AA67" s="27"/>
+      <c r="AA67" s="34"/>
       <c r="AB67" s="32"/>
       <c r="AC67" s="32"/>
-      <c r="AD67" s="48"/>
-      <c r="AE67" s="48"/>
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="33"/>
       <c r="AF67" s="34"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
-      <c r="AI67" s="48"/>
+      <c r="AI67" s="32"/>
       <c r="AJ67" s="33"/>
       <c r="AK67" s="34"/>
       <c r="AL67" s="32"/>
       <c r="AM67" s="32"/>
-      <c r="AN67" s="48"/>
+      <c r="AN67" s="32"/>
       <c r="AO67" s="33"/>
     </row>
     <row r="68" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5860,41 +5828,41 @@
         <v>66</v>
       </c>
       <c r="E68" s="66"/>
-      <c r="F68" s="56"/>
+      <c r="F68" s="163"/>
       <c r="G68" s="27"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
-      <c r="K68" s="48"/>
+      <c r="K68" s="33"/>
       <c r="L68" s="34"/>
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
-      <c r="O68" s="48"/>
+      <c r="O68" s="32"/>
       <c r="P68" s="33"/>
-      <c r="Q68" s="27"/>
+      <c r="Q68" s="34"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="48"/>
+      <c r="T68" s="32"/>
       <c r="U68" s="33"/>
       <c r="V68" s="34"/>
       <c r="W68" s="32"/>
       <c r="X68" s="32"/>
       <c r="Y68" s="32"/>
       <c r="Z68" s="33"/>
-      <c r="AA68" s="27"/>
+      <c r="AA68" s="34"/>
       <c r="AB68" s="32"/>
       <c r="AC68" s="32"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="48"/>
+      <c r="AD68" s="32"/>
+      <c r="AE68" s="33"/>
       <c r="AF68" s="34"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
-      <c r="AI68" s="48"/>
+      <c r="AI68" s="32"/>
       <c r="AJ68" s="33"/>
       <c r="AK68" s="34"/>
       <c r="AL68" s="32"/>
       <c r="AM68" s="32"/>
-      <c r="AN68" s="48"/>
+      <c r="AN68" s="32"/>
       <c r="AO68" s="33"/>
     </row>
     <row r="69" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5905,41 +5873,41 @@
         <v>94</v>
       </c>
       <c r="E69" s="66"/>
-      <c r="F69" s="56"/>
+      <c r="F69" s="163"/>
       <c r="G69" s="27"/>
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
-      <c r="K69" s="48"/>
+      <c r="K69" s="33"/>
       <c r="L69" s="34"/>
       <c r="M69" s="32"/>
       <c r="N69" s="32"/>
-      <c r="O69" s="48"/>
+      <c r="O69" s="32"/>
       <c r="P69" s="33"/>
-      <c r="Q69" s="27"/>
+      <c r="Q69" s="34"/>
       <c r="R69" s="32"/>
       <c r="S69" s="32"/>
-      <c r="T69" s="48"/>
+      <c r="T69" s="32"/>
       <c r="U69" s="33"/>
       <c r="V69" s="34"/>
       <c r="W69" s="32"/>
       <c r="X69" s="32"/>
       <c r="Y69" s="32"/>
       <c r="Z69" s="33"/>
-      <c r="AA69" s="27"/>
+      <c r="AA69" s="34"/>
       <c r="AB69" s="32"/>
       <c r="AC69" s="32"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
+      <c r="AD69" s="32"/>
+      <c r="AE69" s="33"/>
       <c r="AF69" s="34"/>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
-      <c r="AI69" s="48"/>
+      <c r="AI69" s="32"/>
       <c r="AJ69" s="33"/>
       <c r="AK69" s="34"/>
       <c r="AL69" s="32"/>
       <c r="AM69" s="32"/>
-      <c r="AN69" s="48"/>
+      <c r="AN69" s="32"/>
       <c r="AO69" s="33"/>
     </row>
     <row r="70" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -5959,32 +5927,32 @@
       <c r="L70" s="34"/>
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
-      <c r="O70" s="48"/>
+      <c r="O70" s="32"/>
       <c r="P70" s="33"/>
-      <c r="Q70" s="27"/>
+      <c r="Q70" s="34"/>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
-      <c r="T70" s="48"/>
+      <c r="T70" s="32"/>
       <c r="U70" s="33"/>
       <c r="V70" s="34"/>
       <c r="W70" s="32"/>
       <c r="X70" s="32"/>
       <c r="Y70" s="32"/>
       <c r="Z70" s="33"/>
-      <c r="AA70" s="27"/>
+      <c r="AA70" s="34"/>
       <c r="AB70" s="32"/>
       <c r="AC70" s="32"/>
-      <c r="AD70" s="48"/>
-      <c r="AE70" s="48"/>
+      <c r="AD70" s="32"/>
+      <c r="AE70" s="33"/>
       <c r="AF70" s="34"/>
       <c r="AG70" s="32"/>
       <c r="AH70" s="32"/>
-      <c r="AI70" s="48"/>
+      <c r="AI70" s="32"/>
       <c r="AJ70" s="33"/>
       <c r="AK70" s="34"/>
       <c r="AL70" s="32"/>
       <c r="AM70" s="32"/>
-      <c r="AN70" s="48"/>
+      <c r="AN70" s="32"/>
       <c r="AO70" s="33"/>
     </row>
     <row r="71" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6024,23 +5992,23 @@
       <c r="AF71" s="34"/>
       <c r="AG71" s="32"/>
       <c r="AH71" s="32"/>
-      <c r="AI71" s="48"/>
+      <c r="AI71" s="32"/>
       <c r="AJ71" s="33"/>
       <c r="AK71" s="34"/>
       <c r="AL71" s="32"/>
       <c r="AM71" s="32"/>
-      <c r="AN71" s="48"/>
+      <c r="AN71" s="32"/>
       <c r="AO71" s="33"/>
     </row>
     <row r="72" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="156" t="s">
+      <c r="C72" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="157"/>
+      <c r="D72" s="110"/>
       <c r="E72" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="27"/>
@@ -6076,7 +6044,7 @@
       <c r="AK72" s="34"/>
       <c r="AL72" s="32"/>
       <c r="AM72" s="32"/>
-      <c r="AN72" s="48"/>
+      <c r="AN72" s="32"/>
       <c r="AO72" s="33"/>
     </row>
     <row r="73" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -6217,12 +6185,12 @@
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="136" t="s">
+      <c r="C76" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="137"/>
+      <c r="D76" s="123"/>
       <c r="E76" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="53"/>
@@ -6624,12 +6592,12 @@
     <row r="85" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="156" t="s">
+      <c r="C85" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="157"/>
+      <c r="D85" s="110"/>
       <c r="E85" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F85" s="56"/>
       <c r="G85" s="27"/>
@@ -6851,12 +6819,12 @@
     <row r="90" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="156" t="s">
+      <c r="C90" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="D90" s="157"/>
+      <c r="D90" s="110"/>
       <c r="E90" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" s="56"/>
       <c r="G90" s="27"/>
@@ -6943,12 +6911,12 @@
     <row r="92" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="156" t="s">
+      <c r="C92" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="157"/>
+      <c r="D92" s="110"/>
       <c r="E92" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F92" s="56"/>
       <c r="G92" s="27"/>
@@ -7080,12 +7048,12 @@
     <row r="95" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="13"/>
-      <c r="C95" s="156" t="s">
+      <c r="C95" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D95" s="157"/>
+      <c r="D95" s="110"/>
       <c r="E95" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F95" s="57"/>
       <c r="G95" s="28"/>
@@ -7217,12 +7185,12 @@
     <row r="98" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="156" t="s">
+      <c r="C98" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="157"/>
+      <c r="D98" s="110"/>
       <c r="E98" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" s="57"/>
       <c r="G98" s="28"/>
@@ -7354,12 +7322,12 @@
     <row r="101" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="156" t="s">
+      <c r="C101" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="157"/>
+      <c r="D101" s="110"/>
       <c r="E101" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F101" s="57"/>
       <c r="G101" s="28"/>
@@ -7491,12 +7459,12 @@
     <row r="104" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="156" t="s">
+      <c r="C104" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="157"/>
+      <c r="D104" s="110"/>
       <c r="E104" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F104" s="57"/>
       <c r="G104" s="28"/>
@@ -7628,12 +7596,12 @@
     <row r="107" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="156" t="s">
+      <c r="C107" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="157"/>
+      <c r="D107" s="110"/>
       <c r="E107" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F107" s="57"/>
       <c r="G107" s="28"/>
@@ -7763,7 +7731,7 @@
       <c r="AO109" s="49"/>
     </row>
     <row r="110" spans="1:41" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="106"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="94"/>
       <c r="C110" s="16"/>
       <c r="D110" s="17" t="s">
@@ -7811,11 +7779,11 @@
       <c r="A111" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="155" t="s">
+      <c r="B111" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="151"/>
-      <c r="D111" s="152"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="127"/>
       <c r="E111" s="68"/>
       <c r="F111" s="59"/>
       <c r="G111" s="29"/>
@@ -7859,10 +7827,10 @@
         <v>16</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="119" t="s">
+      <c r="C112" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="115"/>
+      <c r="D112" s="107"/>
       <c r="E112" s="66"/>
       <c r="F112" s="56"/>
       <c r="G112" s="27"/>
@@ -7906,10 +7874,10 @@
         <v>17</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="C113" s="119" t="s">
+      <c r="C113" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="115"/>
+      <c r="D113" s="107"/>
       <c r="E113" s="66"/>
       <c r="F113" s="56"/>
       <c r="G113" s="27"/>
@@ -7953,10 +7921,10 @@
         <v>17</v>
       </c>
       <c r="B114" s="4"/>
-      <c r="C114" s="119" t="s">
+      <c r="C114" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="115"/>
+      <c r="D114" s="107"/>
       <c r="E114" s="66"/>
       <c r="F114" s="56"/>
       <c r="G114" s="27"/>
@@ -8000,10 +7968,10 @@
         <v>18</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="C115" s="148" t="s">
+      <c r="C115" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="149"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="67"/>
       <c r="F115" s="57"/>
       <c r="G115" s="28"/>
@@ -8190,6 +8158,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="L1:AJ1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C26:D26"/>
@@ -8206,48 +8216,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="L1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
